--- a/clientdata/bifurations.xlsx
+++ b/clientdata/bifurations.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejaswini\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{12E6D1F8-C58E-44C5-B7EE-7CEAAF5B6627}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CROP GROUPS" sheetId="1" r:id="rId1"/>
@@ -1436,7 +1431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1646,7 +1641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1698,7 +1693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1892,17 +1887,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF96DBB-425F-4261-A99F-0E1B86970C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3E7BBE-5FDF-436C-9F0C-9CD716C22EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -3004,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A226C-2EC9-4B67-914F-39681EC70CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010D584B-9427-40AB-9F9C-29ADAE11CC74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3200,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5588036-4A9D-4D76-9CC8-B46470504120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3638,7 +3633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03914A28-336E-425F-8355-E3C4984DB945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,7 +4005,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>361</v>
       </c>
@@ -4156,14 +4151,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E48684-928D-4673-9A7B-C61160987AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4276,14 +4274,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E1515-1D43-46D2-8003-7CA1BEE648DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
